--- a/biology/Écologie/Source_de_carbone/Source_de_carbone.xlsx
+++ b/biology/Écologie/Source_de_carbone/Source_de_carbone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">D'un point de vue biologique, une source de carbone est un nutriment (sucre, acide gras, acide aminé...) fournissant le carbone nécessaire à la constitution de nouvelles molécules organiques (anabolisme).
 D'un point de vue écologique, une source de carbone ou source CO2 est un élément (ou un processus sur cet élément) libérant du dioxyde de carbone dans l'atmosphère.
